--- a/local_species.xlsx
+++ b/local_species.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vangala saranya\OneDrive\Desktop\afforestation_model\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd2e78ed3f547056/Desktop/afforestation_model/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948442EF-F586-4A9F-86DC-C86C8AC43D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{948442EF-F586-4A9F-86DC-C86C8AC43D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84C8DFE4-4F67-40F6-BE5C-38FA0026B8D1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Tree Name</t>
   </si>
@@ -197,6 +197,36 @@
   </si>
   <si>
     <t>School gardens, home compounds</t>
+  </si>
+  <si>
+    <t>Duckweed</t>
+  </si>
+  <si>
+    <t>Small ponds</t>
+  </si>
+  <si>
+    <t>water bodies</t>
+  </si>
+  <si>
+    <t>Vetiver Grass</t>
+  </si>
+  <si>
+    <t>Chrysopogon zizanioides</t>
+  </si>
+  <si>
+    <t>Lemna minor</t>
+  </si>
+  <si>
+    <t>Sandy/Loamy,Riverbanks</t>
+  </si>
+  <si>
+    <t>erosion-prone areas</t>
+  </si>
+  <si>
+    <t>Agricultural canals</t>
+  </si>
+  <si>
+    <t>Roadsides and erosion-prone areas</t>
   </si>
 </sst>
 </file>
@@ -584,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,6 +941,64 @@
         <v>58</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0.1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12">
+        <v>0.85</v>
+      </c>
+      <c r="G12">
+        <v>1.3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13">
+        <v>0.9</v>
+      </c>
+      <c r="G13">
+        <v>1.2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
